--- a/convertextract/cors/correspondence_spreadsheets/tssilhqut-in_doulos.xlsx
+++ b/convertextract/cors/correspondence_spreadsheets/tssilhqut-in_doulos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinea\convertextract\convertextract\cors\correspondence_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinea\textract\textract\cors\correspondence_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>^</t>
-  </si>
-  <si>
     <t>&amp;</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>\^</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -392,31 +392,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
